--- a/completed.xlsx
+++ b/completed.xlsx
@@ -1,46 +1,120 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marshall\Desktop\LumDraft\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A51DE9-081F-450E-93C7-044A16B1A55C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>completed</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/purpleskyhq</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/calciferstaylit</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/noisebible</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/house-bootlegs</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/pegboardnerds</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/moi-records</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/electromusicapp</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/heatedrecords</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/hkfiftyone2</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/karmarhythm</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/chilltrapnetwork</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/eaglesnestradionetwork</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/randoeats</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/x_change</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/seangast</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/iamsammyporter</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/erbndub</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/artistunioncollective</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/deep_chills</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/desirerec</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/xclusivedrops</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/mostaddictivemusic</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/racecarbed</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/monstercat</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/tailsxbeats</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/lug00ber</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -56,24 +130,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -361,21 +426,155 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/completed.xlsx
+++ b/completed.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>completed</t>
   </si>
@@ -23,79 +23,19 @@
     <t>https://soundcloud.com/purpleskyhq</t>
   </si>
   <si>
-    <t>https://soundcloud.com/calciferstaylit</t>
-  </si>
-  <si>
-    <t>https://soundcloud.com/noisebible</t>
-  </si>
-  <si>
-    <t>https://soundcloud.com/house-bootlegs</t>
-  </si>
-  <si>
-    <t>https://soundcloud.com/pegboardnerds</t>
-  </si>
-  <si>
-    <t>https://soundcloud.com/moi-records</t>
-  </si>
-  <si>
-    <t>https://soundcloud.com/electromusicapp</t>
-  </si>
-  <si>
     <t>https://soundcloud.com/heatedrecords</t>
   </si>
   <si>
-    <t>https://soundcloud.com/hkfiftyone2</t>
-  </si>
-  <si>
-    <t>https://soundcloud.com/karmarhythm</t>
-  </si>
-  <si>
-    <t>https://soundcloud.com/chilltrapnetwork</t>
-  </si>
-  <si>
-    <t>https://soundcloud.com/eaglesnestradionetwork</t>
-  </si>
-  <si>
-    <t>https://soundcloud.com/randoeats</t>
-  </si>
-  <si>
-    <t>https://soundcloud.com/x_change</t>
-  </si>
-  <si>
-    <t>https://soundcloud.com/seangast</t>
-  </si>
-  <si>
-    <t>https://soundcloud.com/iamsammyporter</t>
-  </si>
-  <si>
-    <t>https://soundcloud.com/erbndub</t>
-  </si>
-  <si>
-    <t>https://soundcloud.com/artistunioncollective</t>
-  </si>
-  <si>
-    <t>https://soundcloud.com/deep_chills</t>
-  </si>
-  <si>
-    <t>https://soundcloud.com/desirerec</t>
-  </si>
-  <si>
-    <t>https://soundcloud.com/xclusivedrops</t>
-  </si>
-  <si>
-    <t>https://soundcloud.com/mostaddictivemusic</t>
-  </si>
-  <si>
-    <t>https://soundcloud.com/racecarbed</t>
-  </si>
-  <si>
-    <t>https://soundcloud.com/monstercat</t>
-  </si>
-  <si>
-    <t>https://soundcloud.com/tailsxbeats</t>
-  </si>
-  <si>
-    <t>https://soundcloud.com/lug00ber</t>
+    <t>https://soundcloud.com/headout</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/sektoroffical</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/stmpdrcrds</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/silqueofficial</t>
   </si>
 </sst>
 </file>
@@ -431,7 +371,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,106 +414,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
